--- a/data/trans_orig/P78_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>408569</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>393375</v>
+        <v>392352</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>416875</v>
+        <v>416645</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9560847320114635</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9205286460874541</v>
+        <v>0.9181342640771395</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9755210069722652</v>
+        <v>0.9749827867310894</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>573</v>
@@ -762,19 +762,19 @@
         <v>396081</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>378943</v>
+        <v>379839</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>410807</v>
+        <v>411008</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7402446052811482</v>
+        <v>0.7402446052811481</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7082141440336601</v>
+        <v>0.7098893264480858</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7677655115029504</v>
+        <v>0.768140892203119</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>936</v>
@@ -783,19 +783,19 @@
         <v>804650</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>783007</v>
+        <v>780872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>821785</v>
+        <v>821028</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8360840396041198</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8135955301769016</v>
+        <v>0.8113773109086204</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8538890918526432</v>
+        <v>0.853102495064527</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>18767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10461</v>
+        <v>10691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33961</v>
+        <v>34984</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04391526798853643</v>
+        <v>0.04391526798853644</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02447899302773474</v>
+        <v>0.02501721326891047</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07947135391254591</v>
+        <v>0.08186573592285989</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>286</v>
@@ -833,19 +833,19 @@
         <v>138987</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>124261</v>
+        <v>124060</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>156125</v>
+        <v>155229</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2597553947188519</v>
+        <v>0.2597553947188518</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2322344884970494</v>
+        <v>0.231859107796881</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2917858559663399</v>
+        <v>0.2901106735519141</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>303</v>
@@ -854,19 +854,19 @@
         <v>157753</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>140618</v>
+        <v>141375</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>179396</v>
+        <v>181531</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1639159603958801</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1461109081473565</v>
+        <v>0.146897504935473</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1864044698230983</v>
+        <v>0.1886226890913794</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>711762</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>692032</v>
+        <v>689769</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>724985</v>
+        <v>725391</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9485055463794312</v>
+        <v>0.9485055463794313</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.922212538492562</v>
+        <v>0.9191972730133243</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9661268544817739</v>
+        <v>0.9666667444474469</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>833</v>
@@ -979,19 +979,19 @@
         <v>655418</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>634175</v>
+        <v>632647</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>675242</v>
+        <v>675068</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7709265211633352</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.745939821872049</v>
+        <v>0.7441420862994155</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7942440970286735</v>
+        <v>0.7940402569077311</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1409</v>
@@ -1000,19 +1000,19 @@
         <v>1367179</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1337250</v>
+        <v>1340982</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1391945</v>
+        <v>1392720</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8541817067578439</v>
+        <v>0.8541817067578438</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8354823141007514</v>
+        <v>0.8378143888080305</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8696547212237266</v>
+        <v>0.870139011882329</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>38642</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25419</v>
+        <v>25013</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58372</v>
+        <v>60635</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05149445362056868</v>
+        <v>0.05149445362056869</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03387314551822608</v>
+        <v>0.03333325555255288</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07778746150743795</v>
+        <v>0.08080272698667576</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>323</v>
@@ -1050,19 +1050,19 @@
         <v>194751</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>174927</v>
+        <v>175101</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>215994</v>
+        <v>217522</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2290734788366648</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2057559029713265</v>
+        <v>0.2059597430922691</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2540601781279509</v>
+        <v>0.2558579137005847</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>349</v>
@@ -1071,19 +1071,19 @@
         <v>233393</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>208627</v>
+        <v>207852</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>263322</v>
+        <v>259590</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1458182932421562</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1303452787762736</v>
+        <v>0.129860988117671</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1645176858992487</v>
+        <v>0.1621856111919696</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>486177</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>468742</v>
+        <v>467515</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>499139</v>
+        <v>497889</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9374594864233747</v>
+        <v>0.9374594864233746</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.903841156819009</v>
+        <v>0.9014750433590111</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9624526266014681</v>
+        <v>0.960043198105904</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>585</v>
@@ -1196,19 +1196,19 @@
         <v>497538</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>477972</v>
+        <v>480305</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>514130</v>
+        <v>513129</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7979735783069667</v>
+        <v>0.7979735783069665</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7665933046993759</v>
+        <v>0.7703339702094573</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8245849161288307</v>
+        <v>0.8229789969249723</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>944</v>
@@ -1217,19 +1217,19 @@
         <v>983715</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>959708</v>
+        <v>957986</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1004877</v>
+        <v>1006047</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8613113978989361</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8402913872910249</v>
+        <v>0.838784035338533</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8798401030770113</v>
+        <v>0.8808644101944463</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>32434</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19472</v>
+        <v>20722</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49869</v>
+        <v>51096</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06254051357662525</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03754737339853191</v>
+        <v>0.03995680189409606</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09615884318099051</v>
+        <v>0.09852495664098891</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>188</v>
@@ -1267,19 +1267,19 @@
         <v>125964</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>109372</v>
+        <v>110373</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>145530</v>
+        <v>143197</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2020264216930334</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1754150838711694</v>
+        <v>0.1770210030750275</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2334066953006242</v>
+        <v>0.2296660297905425</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>209</v>
@@ -1288,19 +1288,19 @@
         <v>158398</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>137236</v>
+        <v>136066</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>182405</v>
+        <v>184127</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1386886021010639</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1201598969229887</v>
+        <v>0.1191355898055543</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1597086127089752</v>
+        <v>0.1612159646614673</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>611364</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>589552</v>
+        <v>593049</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>624115</v>
+        <v>625595</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9434027387912893</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9097446188305256</v>
+        <v>0.9151416271317258</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9630795728259672</v>
+        <v>0.9653633543544946</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>812</v>
@@ -1413,19 +1413,19 @@
         <v>637428</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>614768</v>
+        <v>612286</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>659844</v>
+        <v>658551</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7563527629614292</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7294645434841902</v>
+        <v>0.7265193850294294</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7829504986548436</v>
+        <v>0.7814166297416455</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1344</v>
@@ -1434,19 +1434,19 @@
         <v>1248793</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1217066</v>
+        <v>1217084</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1275302</v>
+        <v>1274492</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8376618030917647</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8163799182781143</v>
+        <v>0.8163918615858203</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8554437220226244</v>
+        <v>0.8548999453968521</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>36677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23926</v>
+        <v>22446</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58489</v>
+        <v>54992</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05659726120871072</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03692042717403277</v>
+        <v>0.03463664564550521</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09025538116947468</v>
+        <v>0.08485837286827433</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>307</v>
@@ -1484,19 +1484,19 @@
         <v>205338</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>182922</v>
+        <v>184215</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>227998</v>
+        <v>230480</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2436472370385708</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2170495013451566</v>
+        <v>0.2185833702583546</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2705354565158097</v>
+        <v>0.2734806149705709</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>331</v>
@@ -1505,19 +1505,19 @@
         <v>242015</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>215506</v>
+        <v>216316</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>273742</v>
+        <v>273724</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1623381969082354</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1445562779773758</v>
+        <v>0.145100054603148</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.183620081721886</v>
+        <v>0.1836081384141797</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>2217872</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2183725</v>
+        <v>2184747</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2244342</v>
+        <v>2244027</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.94603301393177</v>
+        <v>0.9460330139317702</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9314674318280844</v>
+        <v>0.9319032442755407</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9573235433288995</v>
+        <v>0.9571891430337899</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2803</v>
@@ -1630,19 +1630,19 @@
         <v>2186466</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2148871</v>
+        <v>2144569</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2225621</v>
+        <v>2227466</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7667759827088031</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7535919355079969</v>
+        <v>0.7520832779206509</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7805075141317626</v>
+        <v>0.7811545316952804</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4633</v>
@@ -1651,19 +1651,19 @@
         <v>4404338</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4353373</v>
+        <v>4356288</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4451659</v>
+        <v>4451094</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8476568765894112</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8378481942069994</v>
+        <v>0.8384092055529448</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8567642617854185</v>
+        <v>0.8566555622068365</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>126520</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>100050</v>
+        <v>100365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>160667</v>
+        <v>159645</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05396698606822983</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04267645667110068</v>
+        <v>0.04281085696620989</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06853256817191566</v>
+        <v>0.0680967557244594</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1104</v>
@@ -1701,19 +1701,19 @@
         <v>665039</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>625884</v>
+        <v>624039</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>702634</v>
+        <v>706936</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2332240172911969</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2194924858682374</v>
+        <v>0.2188454683047194</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2464080644920033</v>
+        <v>0.2479167220793488</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1192</v>
@@ -1722,19 +1722,19 @@
         <v>791559</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>744238</v>
+        <v>744803</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>842524</v>
+        <v>839609</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1523431234105887</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1432357382145817</v>
+        <v>0.1433444377931634</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1621518057930006</v>
+        <v>0.1615907944470552</v>
       </c>
     </row>
     <row r="18">
